--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a8af6ed06db6f08/Desktop/kt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10485EC15855B25ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399E738F-37F2-4D9F-9E27-A27BFD65181B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC10485EC15855B25ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0434614A-6413-46F4-B103-7E67852F34B1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -94,21 +94,6 @@
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>karnata Captial City</t>
-  </si>
-  <si>
-    <t>Mandya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banglore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysore </t>
-  </si>
-  <si>
-    <t>DK</t>
   </si>
   <si>
     <t>Python is mainly a ___s_____ language</t>
@@ -454,7 +439,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B17" activeCellId="1" sqref="A7:F7 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +529,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -562,7 +547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -583,24 +568,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a8af6ed06db6f08/Desktop/kt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC10485EC15855B25ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0434614A-6413-46F4-B103-7E67852F34B1}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{80DBB842-8485-4C05-8834-3F809A3DECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57A98F7-59F4-4D66-8A0B-6CBA458FA737}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -45,58 +45,214 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>(your first question here)</t>
-  </si>
-  <si>
-    <t>(option A text)</t>
-  </si>
-  <si>
-    <t>(option B text)</t>
-  </si>
-  <si>
-    <t>(option C text)</t>
-  </si>
-  <si>
-    <t>(option D text)</t>
-  </si>
-  <si>
-    <t>What is the capital of India?</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>2 + 2 = ?</t>
-  </si>
-  <si>
-    <t>compiled</t>
-  </si>
-  <si>
-    <t>interpreted</t>
-  </si>
-  <si>
-    <t>scripting</t>
-  </si>
-  <si>
-    <t>low-level</t>
-  </si>
-  <si>
-    <t>… add as many rows as you want</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>Python is mainly a ___s_____ language</t>
+    <t>The Gabor Transform achieves minimum time frequency uncertainty because the Gaussian function is:</t>
+  </si>
+  <si>
+    <t>Compactly supported</t>
+  </si>
+  <si>
+    <t>Orthogonal to sine basis</t>
+  </si>
+  <si>
+    <t>An eigenfunction of the Fourier Transform</t>
+  </si>
+  <si>
+    <t>Band limited</t>
+  </si>
+  <si>
+    <t>The mathematical form of the Heisenberg Uncertainty Principle states that:</t>
+  </si>
+  <si>
+    <t>Time spread minus frequency spread is constant</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread equals one</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread is greater than or equal to one divided by four pi</t>
+  </si>
+  <si>
+    <t>Time spread plus frequency spread is greater than one</t>
+  </si>
+  <si>
+    <t>The Short Time Fourier Transform assumes that the signal is:</t>
+  </si>
+  <si>
+    <t>Locally stationary within the analysis window</t>
+  </si>
+  <si>
+    <t>Globally stationary</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>Wavelet Transform provides logarithmic frequency resolution because of:</t>
+  </si>
+  <si>
+    <t>Scale dilation property</t>
+  </si>
+  <si>
+    <t>Quadratic energy formulation</t>
+  </si>
+  <si>
+    <t>Constant window length</t>
+  </si>
+  <si>
+    <t>Uniform tiling</t>
+  </si>
+  <si>
+    <t>Wigner Ville Distribution is considered bilinear because it is based on:</t>
+  </si>
+  <si>
+    <t>Gaussian windowing</t>
+  </si>
+  <si>
+    <t>Fourier magnitude</t>
+  </si>
+  <si>
+    <t>Linear convolution</t>
+  </si>
+  <si>
+    <t>Signal autocorrelation product</t>
+  </si>
+  <si>
+    <t>Cross terms in Wigner Ville Distribution occur due to interaction between:</t>
+  </si>
+  <si>
+    <t>Different signal components</t>
+  </si>
+  <si>
+    <t>Noise components</t>
+  </si>
+  <si>
+    <t>Sampling intervals</t>
+  </si>
+  <si>
+    <t>Window functions</t>
+  </si>
+  <si>
+    <t>Cohen Class Distributions reduce cross terms by applying smoothing in:</t>
+  </si>
+  <si>
+    <t>Ambiguity domain</t>
+  </si>
+  <si>
+    <t>Frequency domain only</t>
+  </si>
+  <si>
+    <t>Z domain</t>
+  </si>
+  <si>
+    <t>Time domain only</t>
+  </si>
+  <si>
+    <t>The Spectrogram corresponds to the squared magnitude of:</t>
+  </si>
+  <si>
+    <t>Hilbert Transform</t>
+  </si>
+  <si>
+    <t>Continuous Wavelet Transform</t>
+  </si>
+  <si>
+    <t>Short Time Fourier Transform</t>
+  </si>
+  <si>
+    <t>Autoregressive model</t>
+  </si>
+  <si>
+    <t>The admissibility condition for Continuous Wavelet Transform requires:</t>
+  </si>
+  <si>
+    <t>Orthogonality</t>
+  </si>
+  <si>
+    <t>Compact support</t>
+  </si>
+  <si>
+    <t>Unit variance</t>
+  </si>
+  <si>
+    <t>Zero mean mother wavelet</t>
+  </si>
+  <si>
+    <t>Synchro Squeezed Wavelet Transform sharpens frequency localization by:</t>
+  </si>
+  <si>
+    <t>Energy reassignment using phase derivative</t>
+  </si>
+  <si>
+    <t>Window truncation</t>
+  </si>
+  <si>
+    <t>Zero padding</t>
+  </si>
+  <si>
+    <t>Low pass filtering</t>
+  </si>
+  <si>
+    <t>Instantaneous frequency is mathematically defined as:</t>
+  </si>
+  <si>
+    <t>Time derivative of signal magnitude</t>
+  </si>
+  <si>
+    <t>Autocorrelation slope</t>
+  </si>
+  <si>
+    <t>Amplitude derivative</t>
+  </si>
+  <si>
+    <t>Time derivative of phase divided by two pi</t>
+  </si>
+  <si>
+    <t>Hilbert Transform forms analytic signal by eliminating:</t>
+  </si>
+  <si>
+    <t>Positive frequencies</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Negative frequencies</t>
+  </si>
+  <si>
+    <t>Direct current component</t>
+  </si>
+  <si>
+    <t>Empirical Mode Decomposition extracts Intrinsic Mode Functions that satisfy:</t>
+  </si>
+  <si>
+    <t>Orthogonality condition</t>
+  </si>
+  <si>
+    <t>Stationarity</t>
+  </si>
+  <si>
+    <t>Equal number of extrema and zero crossings difference at most one</t>
+  </si>
+  <si>
+    <t>Constant amplitude</t>
+  </si>
+  <si>
+    <t>Variational Mode Decomposition requires pre specification of:</t>
+  </si>
+  <si>
+    <t>Noise variance</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>Window type</t>
+  </si>
+  <si>
+    <t>Number of modes</t>
   </si>
 </sst>
 </file>
@@ -436,15 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" activeCellId="1" sqref="A7:F7 B17"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -484,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -504,82 +664,968 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a8af6ed06db6f08/Desktop/kt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10485EC15855B25ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399E738F-37F2-4D9F-9E27-A27BFD65181B}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{80DBB842-8485-4C05-8834-3F809A3DECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F57A98F7-59F4-4D66-8A0B-6CBA458FA737}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="76">
   <si>
     <t>Question</t>
   </si>
@@ -45,73 +45,214 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>(your first question here)</t>
-  </si>
-  <si>
-    <t>(option A text)</t>
-  </si>
-  <si>
-    <t>(option B text)</t>
-  </si>
-  <si>
-    <t>(option C text)</t>
-  </si>
-  <si>
-    <t>(option D text)</t>
-  </si>
-  <si>
-    <t>What is the capital of India?</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>2 + 2 = ?</t>
-  </si>
-  <si>
-    <t>compiled</t>
-  </si>
-  <si>
-    <t>interpreted</t>
-  </si>
-  <si>
-    <t>scripting</t>
-  </si>
-  <si>
-    <t>low-level</t>
-  </si>
-  <si>
-    <t>… add as many rows as you want</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>karnata Captial City</t>
-  </si>
-  <si>
-    <t>Mandya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banglore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysore </t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Python is mainly a ___s_____ language</t>
+    <t>The Gabor Transform achieves minimum time frequency uncertainty because the Gaussian function is:</t>
+  </si>
+  <si>
+    <t>Compactly supported</t>
+  </si>
+  <si>
+    <t>Orthogonal to sine basis</t>
+  </si>
+  <si>
+    <t>An eigenfunction of the Fourier Transform</t>
+  </si>
+  <si>
+    <t>Band limited</t>
+  </si>
+  <si>
+    <t>The mathematical form of the Heisenberg Uncertainty Principle states that:</t>
+  </si>
+  <si>
+    <t>Time spread minus frequency spread is constant</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread equals one</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread is greater than or equal to one divided by four pi</t>
+  </si>
+  <si>
+    <t>Time spread plus frequency spread is greater than one</t>
+  </si>
+  <si>
+    <t>The Short Time Fourier Transform assumes that the signal is:</t>
+  </si>
+  <si>
+    <t>Locally stationary within the analysis window</t>
+  </si>
+  <si>
+    <t>Globally stationary</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>Wavelet Transform provides logarithmic frequency resolution because of:</t>
+  </si>
+  <si>
+    <t>Scale dilation property</t>
+  </si>
+  <si>
+    <t>Quadratic energy formulation</t>
+  </si>
+  <si>
+    <t>Constant window length</t>
+  </si>
+  <si>
+    <t>Uniform tiling</t>
+  </si>
+  <si>
+    <t>Wigner Ville Distribution is considered bilinear because it is based on:</t>
+  </si>
+  <si>
+    <t>Gaussian windowing</t>
+  </si>
+  <si>
+    <t>Fourier magnitude</t>
+  </si>
+  <si>
+    <t>Linear convolution</t>
+  </si>
+  <si>
+    <t>Signal autocorrelation product</t>
+  </si>
+  <si>
+    <t>Cross terms in Wigner Ville Distribution occur due to interaction between:</t>
+  </si>
+  <si>
+    <t>Different signal components</t>
+  </si>
+  <si>
+    <t>Noise components</t>
+  </si>
+  <si>
+    <t>Sampling intervals</t>
+  </si>
+  <si>
+    <t>Window functions</t>
+  </si>
+  <si>
+    <t>Cohen Class Distributions reduce cross terms by applying smoothing in:</t>
+  </si>
+  <si>
+    <t>Ambiguity domain</t>
+  </si>
+  <si>
+    <t>Frequency domain only</t>
+  </si>
+  <si>
+    <t>Z domain</t>
+  </si>
+  <si>
+    <t>Time domain only</t>
+  </si>
+  <si>
+    <t>The Spectrogram corresponds to the squared magnitude of:</t>
+  </si>
+  <si>
+    <t>Hilbert Transform</t>
+  </si>
+  <si>
+    <t>Continuous Wavelet Transform</t>
+  </si>
+  <si>
+    <t>Short Time Fourier Transform</t>
+  </si>
+  <si>
+    <t>Autoregressive model</t>
+  </si>
+  <si>
+    <t>The admissibility condition for Continuous Wavelet Transform requires:</t>
+  </si>
+  <si>
+    <t>Orthogonality</t>
+  </si>
+  <si>
+    <t>Compact support</t>
+  </si>
+  <si>
+    <t>Unit variance</t>
+  </si>
+  <si>
+    <t>Zero mean mother wavelet</t>
+  </si>
+  <si>
+    <t>Synchro Squeezed Wavelet Transform sharpens frequency localization by:</t>
+  </si>
+  <si>
+    <t>Energy reassignment using phase derivative</t>
+  </si>
+  <si>
+    <t>Window truncation</t>
+  </si>
+  <si>
+    <t>Zero padding</t>
+  </si>
+  <si>
+    <t>Low pass filtering</t>
+  </si>
+  <si>
+    <t>Instantaneous frequency is mathematically defined as:</t>
+  </si>
+  <si>
+    <t>Time derivative of signal magnitude</t>
+  </si>
+  <si>
+    <t>Autocorrelation slope</t>
+  </si>
+  <si>
+    <t>Amplitude derivative</t>
+  </si>
+  <si>
+    <t>Time derivative of phase divided by two pi</t>
+  </si>
+  <si>
+    <t>Hilbert Transform forms analytic signal by eliminating:</t>
+  </si>
+  <si>
+    <t>Positive frequencies</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Negative frequencies</t>
+  </si>
+  <si>
+    <t>Direct current component</t>
+  </si>
+  <si>
+    <t>Empirical Mode Decomposition extracts Intrinsic Mode Functions that satisfy:</t>
+  </si>
+  <si>
+    <t>Orthogonality condition</t>
+  </si>
+  <si>
+    <t>Stationarity</t>
+  </si>
+  <si>
+    <t>Equal number of extrema and zero crossings difference at most one</t>
+  </si>
+  <si>
+    <t>Constant amplitude</t>
+  </si>
+  <si>
+    <t>Variational Mode Decomposition requires pre specification of:</t>
+  </si>
+  <si>
+    <t>Noise variance</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>Window type</t>
+  </si>
+  <si>
+    <t>Number of modes</t>
   </si>
 </sst>
 </file>
@@ -451,15 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -499,10 +644,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -519,94 +664,968 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" t="s">
+        <v>70</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8a8af6ed06db6f08/Desktop/kt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC10485EC15855B25ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{399E738F-37F2-4D9F-9E27-A27BFD65181B}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{80DBB842-8485-4C05-8834-3F809A3DECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BC76BB-9F87-4D95-9DFD-2D27AD88B7E7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
   <si>
     <t>Question</t>
   </si>
@@ -45,73 +45,709 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>(your first question here)</t>
-  </si>
-  <si>
-    <t>(option A text)</t>
-  </si>
-  <si>
-    <t>(option B text)</t>
-  </si>
-  <si>
-    <t>(option C text)</t>
-  </si>
-  <si>
-    <t>(option D text)</t>
-  </si>
-  <si>
-    <t>What is the capital of India?</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>2 + 2 = ?</t>
-  </si>
-  <si>
-    <t>compiled</t>
-  </si>
-  <si>
-    <t>interpreted</t>
-  </si>
-  <si>
-    <t>scripting</t>
-  </si>
-  <si>
-    <t>low-level</t>
-  </si>
-  <si>
-    <t>… add as many rows as you want</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>karnata Captial City</t>
-  </si>
-  <si>
-    <t>Mandya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banglore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mysore </t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>Python is mainly a ___s_____ language</t>
+    <t>The Gabor Transform achieves minimum time frequency uncertainty because the Gaussian function is:</t>
+  </si>
+  <si>
+    <t>Compactly supported</t>
+  </si>
+  <si>
+    <t>Orthogonal to sine basis</t>
+  </si>
+  <si>
+    <t>An eigenfunction of the Fourier Transform</t>
+  </si>
+  <si>
+    <t>Band limited</t>
+  </si>
+  <si>
+    <t>The mathematical form of the Heisenberg Uncertainty Principle states that:</t>
+  </si>
+  <si>
+    <t>Time spread minus frequency spread is constant</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread equals one</t>
+  </si>
+  <si>
+    <t>Time spread multiplied by frequency spread is greater than or equal to one divided by four pi</t>
+  </si>
+  <si>
+    <t>Time spread plus frequency spread is greater than one</t>
+  </si>
+  <si>
+    <t>The Short Time Fourier Transform assumes that the signal is:</t>
+  </si>
+  <si>
+    <t>Locally stationary within the analysis window</t>
+  </si>
+  <si>
+    <t>Globally stationary</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>Wavelet Transform provides logarithmic frequency resolution because of:</t>
+  </si>
+  <si>
+    <t>Scale dilation property</t>
+  </si>
+  <si>
+    <t>Quadratic energy formulation</t>
+  </si>
+  <si>
+    <t>Constant window length</t>
+  </si>
+  <si>
+    <t>Uniform tiling</t>
+  </si>
+  <si>
+    <t>Wigner Ville Distribution is considered bilinear because it is based on:</t>
+  </si>
+  <si>
+    <t>Gaussian windowing</t>
+  </si>
+  <si>
+    <t>Fourier magnitude</t>
+  </si>
+  <si>
+    <t>Linear convolution</t>
+  </si>
+  <si>
+    <t>Signal autocorrelation product</t>
+  </si>
+  <si>
+    <t>Cross terms in Wigner Ville Distribution occur due to interaction between:</t>
+  </si>
+  <si>
+    <t>Different signal components</t>
+  </si>
+  <si>
+    <t>Noise components</t>
+  </si>
+  <si>
+    <t>Sampling intervals</t>
+  </si>
+  <si>
+    <t>Window functions</t>
+  </si>
+  <si>
+    <t>Cohen Class Distributions reduce cross terms by applying smoothing in:</t>
+  </si>
+  <si>
+    <t>Ambiguity domain</t>
+  </si>
+  <si>
+    <t>Frequency domain only</t>
+  </si>
+  <si>
+    <t>Z domain</t>
+  </si>
+  <si>
+    <t>Time domain only</t>
+  </si>
+  <si>
+    <t>The Spectrogram corresponds to the squared magnitude of:</t>
+  </si>
+  <si>
+    <t>Hilbert Transform</t>
+  </si>
+  <si>
+    <t>Continuous Wavelet Transform</t>
+  </si>
+  <si>
+    <t>Short Time Fourier Transform</t>
+  </si>
+  <si>
+    <t>Autoregressive model</t>
+  </si>
+  <si>
+    <t>The admissibility condition for Continuous Wavelet Transform requires:</t>
+  </si>
+  <si>
+    <t>Orthogonality</t>
+  </si>
+  <si>
+    <t>Compact support</t>
+  </si>
+  <si>
+    <t>Unit variance</t>
+  </si>
+  <si>
+    <t>Zero mean mother wavelet</t>
+  </si>
+  <si>
+    <t>Synchro Squeezed Wavelet Transform sharpens frequency localization by:</t>
+  </si>
+  <si>
+    <t>Energy reassignment using phase derivative</t>
+  </si>
+  <si>
+    <t>Window truncation</t>
+  </si>
+  <si>
+    <t>Zero padding</t>
+  </si>
+  <si>
+    <t>Low pass filtering</t>
+  </si>
+  <si>
+    <t>Instantaneous frequency is mathematically defined as:</t>
+  </si>
+  <si>
+    <t>Time derivative of signal magnitude</t>
+  </si>
+  <si>
+    <t>Autocorrelation slope</t>
+  </si>
+  <si>
+    <t>Amplitude derivative</t>
+  </si>
+  <si>
+    <t>Time derivative of phase divided by two pi</t>
+  </si>
+  <si>
+    <t>Hilbert Transform forms analytic signal by eliminating:</t>
+  </si>
+  <si>
+    <t>Positive frequencies</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>Negative frequencies</t>
+  </si>
+  <si>
+    <t>Direct current component</t>
+  </si>
+  <si>
+    <t>Empirical Mode Decomposition extracts Intrinsic Mode Functions that satisfy:</t>
+  </si>
+  <si>
+    <t>Orthogonality condition</t>
+  </si>
+  <si>
+    <t>Stationarity</t>
+  </si>
+  <si>
+    <t>Equal number of extrema and zero crossings difference at most one</t>
+  </si>
+  <si>
+    <t>Constant amplitude</t>
+  </si>
+  <si>
+    <t>Variational Mode Decomposition requires pre specification of:</t>
+  </si>
+  <si>
+    <t>Noise variance</t>
+  </si>
+  <si>
+    <t>Sampling rate</t>
+  </si>
+  <si>
+    <t>Window type</t>
+  </si>
+  <si>
+    <t>Number of modes</t>
+  </si>
+  <si>
+    <t>Mode mixing in Empirical Mode Decomposition mainly occurs due to:</t>
+  </si>
+  <si>
+    <t>Intermittent signal components</t>
+  </si>
+  <si>
+    <t>Fixed basis functions</t>
+  </si>
+  <si>
+    <t>Gaussian window</t>
+  </si>
+  <si>
+    <t>High sampling rate</t>
+  </si>
+  <si>
+    <t>Variational Mode Decomposition estimates modes by minimizing:</t>
+  </si>
+  <si>
+    <t>Time domain energy</t>
+  </si>
+  <si>
+    <t>Bandwidth of each mode in frequency domain</t>
+  </si>
+  <si>
+    <t>Window variance</t>
+  </si>
+  <si>
+    <t>Autoregressive error</t>
+  </si>
+  <si>
+    <t>Multi Taper Method improves spectral estimation by using tapers that are:</t>
+  </si>
+  <si>
+    <t>Random sequences</t>
+  </si>
+  <si>
+    <t>Gaussian windows</t>
+  </si>
+  <si>
+    <t>Orthogonal Discrete Prolate Spheroidal Sequences</t>
+  </si>
+  <si>
+    <t>Rectangular windows</t>
+  </si>
+  <si>
+    <t>The time bandwidth product in Multi Taper Method controls:</t>
+  </si>
+  <si>
+    <t>Resolution and variance trade off</t>
+  </si>
+  <si>
+    <t>Signal amplitude</t>
+  </si>
+  <si>
+    <t>Noise distribution</t>
+  </si>
+  <si>
+    <t>Autoregressive Spectral Estimation assumes signal is generated by:</t>
+  </si>
+  <si>
+    <t>Finite impulse response system</t>
+  </si>
+  <si>
+    <t>Hilbert filter</t>
+  </si>
+  <si>
+    <t>Wavelet packet</t>
+  </si>
+  <si>
+    <t>Infinite impulse response linear predictor</t>
+  </si>
+  <si>
+    <t>Stockwell Transform differs from Wavelet Transform because it maintains:</t>
+  </si>
+  <si>
+    <t>Fixed window size</t>
+  </si>
+  <si>
+    <t>Quadratic form</t>
+  </si>
+  <si>
+    <t>Absolute phase reference</t>
+  </si>
+  <si>
+    <t>Uniform frequency tiling</t>
+  </si>
+  <si>
+    <t>The Z Transform region of convergence determines system:</t>
+  </si>
+  <si>
+    <t>Stability and causality</t>
+  </si>
+  <si>
+    <t>Energy distribution</t>
+  </si>
+  <si>
+    <t>Frequency resolution</t>
+  </si>
+  <si>
+    <t>Time shift</t>
+  </si>
+  <si>
+    <t>Spectral leakage occurs due to:</t>
+  </si>
+  <si>
+    <t>Finite observation duration</t>
+  </si>
+  <si>
+    <t>Infinite observation window</t>
+  </si>
+  <si>
+    <t>White noise</t>
+  </si>
+  <si>
+    <t>Bilinear representation</t>
+  </si>
+  <si>
+    <t>Wavelet Scalogram represents:</t>
+  </si>
+  <si>
+    <t>Magnitude of Fourier Transform</t>
+  </si>
+  <si>
+    <t>Parametric spectrum</t>
+  </si>
+  <si>
+    <t>Autocorrelation sequence</t>
+  </si>
+  <si>
+    <t>Squared magnitude of Continuous Wavelet Transform</t>
+  </si>
+  <si>
+    <t>Heisenberg Uncertainty equality holds true for:</t>
+  </si>
+  <si>
+    <t>Rectangular pulse</t>
+  </si>
+  <si>
+    <t>Chirp signal</t>
+  </si>
+  <si>
+    <t>Gaussian signal</t>
+  </si>
+  <si>
+    <t>Choi Williams Distribution employs which type of kernel:</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Rectangular</t>
+  </si>
+  <si>
+    <t>Gaussian wavelet</t>
+  </si>
+  <si>
+    <t>Triangular</t>
+  </si>
+  <si>
+    <t>Scattering Transform achieves deformation stability through:</t>
+  </si>
+  <si>
+    <t>Z domain filtering</t>
+  </si>
+  <si>
+    <t>Autoregressive modeling</t>
+  </si>
+  <si>
+    <t>Wavelet modulus nonlinearity</t>
+  </si>
+  <si>
+    <t>Wavelet Packet Transform differs because it decomposes:</t>
+  </si>
+  <si>
+    <t>Approximation only</t>
+  </si>
+  <si>
+    <t>Detail only</t>
+  </si>
+  <si>
+    <t>Both approximation and detail coefficients</t>
+  </si>
+  <si>
+    <t>Signal mean</t>
+  </si>
+  <si>
+    <t>Time Frequency Reassignment sharpens representations using:</t>
+  </si>
+  <si>
+    <t>Magnitude scaling</t>
+  </si>
+  <si>
+    <t>Phase gradient estimation</t>
+  </si>
+  <si>
+    <t>Window extension</t>
+  </si>
+  <si>
+    <t>In Short Time Fourier Transform, Heisenberg boxes are:</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>Circular</t>
+  </si>
+  <si>
+    <t>Logarithmic</t>
+  </si>
+  <si>
+    <t>Constant area rectangles</t>
+  </si>
+  <si>
+    <t>Ambiguity function is the two dimensional Fourier Transform of:</t>
+  </si>
+  <si>
+    <t>Spectrogram</t>
+  </si>
+  <si>
+    <t>Wigner Ville Distribution</t>
+  </si>
+  <si>
+    <t>Autocorrelation magnitude</t>
+  </si>
+  <si>
+    <t>Wavelet coefficients</t>
+  </si>
+  <si>
+    <t>Pole inside unit circle in Z Transform implies:</t>
+  </si>
+  <si>
+    <t>Instability</t>
+  </si>
+  <si>
+    <t>Marginal stability</t>
+  </si>
+  <si>
+    <t>Stability</t>
+  </si>
+  <si>
+    <t>Non causality</t>
+  </si>
+  <si>
+    <t>Synchro Squeezed Transform preserves invertibility because:</t>
+  </si>
+  <si>
+    <t>It is linear</t>
+  </si>
+  <si>
+    <t>It reduces redundancy</t>
+  </si>
+  <si>
+    <t>Window is Gaussian</t>
+  </si>
+  <si>
+    <t>Energy is preserved during reassignment</t>
+  </si>
+  <si>
+    <t>Empirical Mode Decomposition is considered data driven because:</t>
+  </si>
+  <si>
+    <t>Uses predefined basis</t>
+  </si>
+  <si>
+    <t>Applies Fourier filtering</t>
+  </si>
+  <si>
+    <t>Basis functions are derived from signal itself</t>
+  </si>
+  <si>
+    <t>Uses parametric modeling</t>
+  </si>
+  <si>
+    <t>Multi Taper eigenvalues represent:</t>
+  </si>
+  <si>
+    <t>Spectral concentration efficiency</t>
+  </si>
+  <si>
+    <t>Noise power</t>
+  </si>
+  <si>
+    <t>Phase distortion</t>
+  </si>
+  <si>
+    <t>Autoregressive model order primarily affects:</t>
+  </si>
+  <si>
+    <t>Spectral peak sharpness</t>
+  </si>
+  <si>
+    <t>Sampling frequency</t>
+  </si>
+  <si>
+    <t>Hilbert phase</t>
+  </si>
+  <si>
+    <t>Continuous Wavelet Transform is redundant because:</t>
+  </si>
+  <si>
+    <t>Scale and translation are continuous</t>
+  </si>
+  <si>
+    <t>Uses quadratic formulation</t>
+  </si>
+  <si>
+    <t>It lacks inverse</t>
+  </si>
+  <si>
+    <t>Window is fixed</t>
+  </si>
+  <si>
+    <t>Scattering Transform is non trainable because filters are:</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Learned via backpropagation</t>
+  </si>
+  <si>
+    <t>Predefined wavelets</t>
+  </si>
+  <si>
+    <t>Wigner Ville Distribution is most suitable for analyzing:</t>
+  </si>
+  <si>
+    <t>Highly noisy signals</t>
+  </si>
+  <si>
+    <t>Single component chirp signals</t>
+  </si>
+  <si>
+    <t>Stationary random noise</t>
+  </si>
+  <si>
+    <t>White Gaussian noise</t>
+  </si>
+  <si>
+    <t>Energy conservation in time frequency representation relates to:</t>
+  </si>
+  <si>
+    <t>Sampling theorem</t>
+  </si>
+  <si>
+    <t>Autoregressive theory</t>
+  </si>
+  <si>
+    <t>Parseval identity</t>
+  </si>
+  <si>
+    <t>Stockwell Transform window width varies according to:</t>
+  </si>
+  <si>
+    <t>Time index</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Wavelet central frequency determines:</t>
+  </si>
+  <si>
+    <t>Scale frequency relationship</t>
+  </si>
+  <si>
+    <t>Sampling interval</t>
+  </si>
+  <si>
+    <t>Window symmetry</t>
+  </si>
+  <si>
+    <t>Mode mixing problem is mitigated in Ensemble Empirical Mode Decomposition by:</t>
+  </si>
+  <si>
+    <t>Windowing</t>
+  </si>
+  <si>
+    <t>Hilbert filtering</t>
+  </si>
+  <si>
+    <t>Adding white noise and averaging</t>
+  </si>
+  <si>
+    <t>Fourier smoothing</t>
+  </si>
+  <si>
+    <t>Bessel Functions appear in spectral concentration because they solve:</t>
+  </si>
+  <si>
+    <t>Fourier series</t>
+  </si>
+  <si>
+    <t>Sturm Liouville equations</t>
+  </si>
+  <si>
+    <t>Autoregressive recursion</t>
+  </si>
+  <si>
+    <t>Hilbert integrals</t>
+  </si>
+  <si>
+    <t>Short Time Fourier Transform provides uniform resolution in:</t>
+  </si>
+  <si>
+    <t>Logarithmic frequency scale</t>
+  </si>
+  <si>
+    <t>Wavelet scale</t>
+  </si>
+  <si>
+    <t>Linear frequency scale</t>
+  </si>
+  <si>
+    <t>Synchro Squeezed Wavelet Transform is especially effective for:</t>
+  </si>
+  <si>
+    <t>Stationary sinusoidal signals</t>
+  </si>
+  <si>
+    <t>Nonstationary time varying frequency signals</t>
+  </si>
+  <si>
+    <t>Direct current signals</t>
+  </si>
+  <si>
+    <t>Linear time invariant systems</t>
+  </si>
+  <si>
+    <t>Spectrogram resolution trade off is governed by:</t>
+  </si>
+  <si>
+    <t>Window length</t>
+  </si>
+  <si>
+    <t>Autoregressive order</t>
+  </si>
+  <si>
+    <t>Discrete Prolate Spheroidal Sequences maximize energy concentration in:</t>
+  </si>
+  <si>
+    <t>Time domain</t>
+  </si>
+  <si>
+    <t>Frequency band</t>
+  </si>
+  <si>
+    <t>Ambiguity plane</t>
+  </si>
+  <si>
+    <t>Instantaneous frequency becomes unreliable when:</t>
+  </si>
+  <si>
+    <t>Amplitude approaches zero</t>
+  </si>
+  <si>
+    <t>Signal is Gaussian</t>
+  </si>
+  <si>
+    <t>Window is rectangular</t>
+  </si>
+  <si>
+    <t>Noise is absent</t>
+  </si>
+  <si>
+    <t>Cohen Class kernel selection balances between:</t>
+  </si>
+  <si>
+    <t>Energy and amplitude</t>
+  </si>
+  <si>
+    <t>Resolution and cross term suppression</t>
+  </si>
+  <si>
+    <t>Time and sampling</t>
+  </si>
+  <si>
+    <t>Noise and variance</t>
+  </si>
+  <si>
+    <t>Fundamental limitation of Short Time Fourier Transform compared to Wavelet Transform is:</t>
+  </si>
+  <si>
+    <t>Fixed time frequency resolution</t>
+  </si>
+  <si>
+    <t>Lack of invertibility</t>
+  </si>
+  <si>
+    <t>Absence of phase</t>
+  </si>
+  <si>
+    <t>Quadratic formulation</t>
   </si>
 </sst>
 </file>
@@ -155,17 +791,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,162 +1083,1040 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="1" max="1" width="50.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
